--- a/data/CS1/case18_1/case18_1_2020.xlsx
+++ b/data/CS1/case18_1/case18_1_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-no_esso-v2\data\CS1\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C89CC5-7DD8-4C98-8023-72E6DA7AB7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19CA438-FC22-494B-89C3-A2CC3232098F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3540" windowWidth="29040" windowHeight="17640" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3540" windowWidth="29040" windowHeight="17640" firstSheet="30" activeTab="36" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22786,7 +22786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADF3E31-EA86-4619-A30C-C96EA9C88E09}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -49977,8 +49977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6851FC-63BB-4AB6-932F-B54727AC9E45}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51094,7 +51094,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B2:Y16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/CS1/case18_1/case18_1_2020.xlsx
+++ b/data/CS1/case18_1/case18_1_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-no_esso-v2\data\CS1\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E44CF3-015E-46E4-8063-4695C9AFA6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E2D5D6-0AD7-4990-B208-E864885F398A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3540" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="5" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -15088,7 +15088,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM('RES installed'!$C$2:$C$6)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -24567,7 +24567,7 @@
       </c>
       <c r="D3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>0</v>
+        <v>1.5680716832769496E-5</v>
       </c>
       <c r="E3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -24587,55 +24587,55 @@
       </c>
       <c r="I3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0</v>
+        <v>9.5351558928408135E-3</v>
       </c>
       <c r="J3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>0</v>
+        <v>0.18890239553808172</v>
       </c>
       <c r="K3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>0</v>
+        <v>0.49290093261406231</v>
       </c>
       <c r="L3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>0</v>
+        <v>0.61511611959403845</v>
       </c>
       <c r="M3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>0</v>
+        <v>0.68321139252080076</v>
       </c>
       <c r="N3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>0</v>
+        <v>0.69588141172167872</v>
       </c>
       <c r="O3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>0</v>
+        <v>0.68310322757611763</v>
       </c>
       <c r="P3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>0</v>
+        <v>0.58327338392612227</v>
       </c>
       <c r="Q3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>0</v>
+        <v>0.38544322026149763</v>
       </c>
       <c r="R3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>0</v>
+        <v>9.4168304836792532E-2</v>
       </c>
       <c r="S3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>0</v>
+        <v>7.3603364725244585E-4</v>
       </c>
       <c r="T3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>0</v>
+        <v>6.3362896589558382E-5</v>
       </c>
       <c r="U3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>0</v>
+        <v>4.8482216329889367E-5</v>
       </c>
       <c r="V3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -24668,7 +24668,7 @@
       </c>
       <c r="D4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>0</v>
+        <v>1.5680716832769496E-5</v>
       </c>
       <c r="E4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -24688,55 +24688,55 @@
       </c>
       <c r="I4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0</v>
+        <v>9.5351558928408135E-3</v>
       </c>
       <c r="J4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>0</v>
+        <v>0.18890239553808172</v>
       </c>
       <c r="K4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>0</v>
+        <v>0.49290093261406231</v>
       </c>
       <c r="L4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>0</v>
+        <v>0.61511611959403845</v>
       </c>
       <c r="M4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>0</v>
+        <v>0.68321139252080076</v>
       </c>
       <c r="N4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>0</v>
+        <v>0.69588141172167872</v>
       </c>
       <c r="O4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>0</v>
+        <v>0.68310322757611763</v>
       </c>
       <c r="P4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>0</v>
+        <v>0.58327338392612227</v>
       </c>
       <c r="Q4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>0</v>
+        <v>0.38544322026149763</v>
       </c>
       <c r="R4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>0</v>
+        <v>9.4168304836792532E-2</v>
       </c>
       <c r="S4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>0</v>
+        <v>7.3603364725244585E-4</v>
       </c>
       <c r="T4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>0</v>
+        <v>6.3362896589558382E-5</v>
       </c>
       <c r="U4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>0</v>
+        <v>4.8482216329889367E-5</v>
       </c>
       <c r="V4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -25068,7 +25068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6014E807-FBD9-4F44-A100-DDACBF5DF304}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
@@ -25238,7 +25238,7 @@
       </c>
       <c r="C3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>0</v>
+        <v>2.7254098360655734E-5</v>
       </c>
       <c r="D3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -25262,51 +25262,51 @@
       </c>
       <c r="I3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0</v>
+        <v>7.6400409836065563E-3</v>
       </c>
       <c r="J3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>0</v>
+        <v>0.15037377049180325</v>
       </c>
       <c r="K3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>0</v>
+        <v>0.35771721311475413</v>
       </c>
       <c r="L3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>0</v>
+        <v>0.48138081967213114</v>
       </c>
       <c r="M3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>0</v>
+        <v>0.59039606557377045</v>
       </c>
       <c r="N3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>0</v>
+        <v>0.70114180327868847</v>
       </c>
       <c r="O3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>0</v>
+        <v>0.585118237704918</v>
       </c>
       <c r="P3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>0</v>
+        <v>0.42994487704918033</v>
       </c>
       <c r="Q3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>0</v>
+        <v>0.20624983606557376</v>
       </c>
       <c r="R3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>0</v>
+        <v>4.3088729508196713E-2</v>
       </c>
       <c r="S3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>0</v>
+        <v>2.7540983606557371E-4</v>
       </c>
       <c r="T3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>0</v>
+        <v>1.2049180327868852E-4</v>
       </c>
       <c r="U3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -25339,7 +25339,7 @@
       </c>
       <c r="C4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>0</v>
+        <v>2.7254098360655734E-5</v>
       </c>
       <c r="D4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -25363,51 +25363,51 @@
       </c>
       <c r="I4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0</v>
+        <v>7.6400409836065563E-3</v>
       </c>
       <c r="J4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>0</v>
+        <v>0.15037377049180325</v>
       </c>
       <c r="K4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>0</v>
+        <v>0.35771721311475413</v>
       </c>
       <c r="L4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>0</v>
+        <v>0.48138081967213114</v>
       </c>
       <c r="M4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>0</v>
+        <v>0.59039606557377045</v>
       </c>
       <c r="N4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>0</v>
+        <v>0.70114180327868847</v>
       </c>
       <c r="O4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>0</v>
+        <v>0.585118237704918</v>
       </c>
       <c r="P4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>0</v>
+        <v>0.42994487704918033</v>
       </c>
       <c r="Q4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>0</v>
+        <v>0.20624983606557376</v>
       </c>
       <c r="R4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>0</v>
+        <v>4.3088729508196713E-2</v>
       </c>
       <c r="S4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>0</v>
+        <v>2.7540983606557371E-4</v>
       </c>
       <c r="T4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>0</v>
+        <v>1.2049180327868852E-4</v>
       </c>
       <c r="U4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -25937,47 +25937,47 @@
       </c>
       <c r="I3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0</v>
+        <v>8.260566945077194E-3</v>
       </c>
       <c r="J3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>0</v>
+        <v>0.18037822703113135</v>
       </c>
       <c r="K3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>0</v>
+        <v>0.41995460010124014</v>
       </c>
       <c r="L3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>0</v>
+        <v>0.60561693242217163</v>
       </c>
       <c r="M3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>0</v>
+        <v>0.62344801948873685</v>
       </c>
       <c r="N3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>0</v>
+        <v>0.59197370918754733</v>
       </c>
       <c r="O3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>0</v>
+        <v>0.46347538597823329</v>
       </c>
       <c r="P3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>0</v>
+        <v>0.35702126044039478</v>
       </c>
       <c r="Q3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>0</v>
+        <v>0.15148949633004302</v>
       </c>
       <c r="R3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>0</v>
+        <v>2.6744969627942289E-2</v>
       </c>
       <c r="S3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>0</v>
+        <v>4.34067324727917E-5</v>
       </c>
       <c r="T3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -26038,47 +26038,47 @@
       </c>
       <c r="I4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0</v>
+        <v>8.260566945077194E-3</v>
       </c>
       <c r="J4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>0</v>
+        <v>0.18037822703113135</v>
       </c>
       <c r="K4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>0</v>
+        <v>0.41995460010124014</v>
       </c>
       <c r="L4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>0</v>
+        <v>0.60561693242217163</v>
       </c>
       <c r="M4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>0</v>
+        <v>0.62344801948873685</v>
       </c>
       <c r="N4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>0</v>
+        <v>0.59197370918754733</v>
       </c>
       <c r="O4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>0</v>
+        <v>0.46347538597823329</v>
       </c>
       <c r="P4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>0</v>
+        <v>0.35702126044039478</v>
       </c>
       <c r="Q4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>0</v>
+        <v>0.15148949633004302</v>
       </c>
       <c r="R4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>0</v>
+        <v>2.6744969627942289E-2</v>
       </c>
       <c r="S4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>0</v>
+        <v>4.34067324727917E-5</v>
       </c>
       <c r="T4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -27529,7 +27529,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27556,7 +27556,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -27567,7 +27567,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -46461,7 +46461,7 @@
       </c>
       <c r="D3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>0</v>
+        <v>1.9757703209289567E-5</v>
       </c>
       <c r="E3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -46481,55 +46481,55 @@
       </c>
       <c r="I3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0</v>
+        <v>1.1537538630337385E-2</v>
       </c>
       <c r="J3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>0</v>
+        <v>0.23990604233336377</v>
       </c>
       <c r="K3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>0</v>
+        <v>0.63584220307214034</v>
       </c>
       <c r="L3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>0</v>
+        <v>0.79965095547225007</v>
       </c>
       <c r="M3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0</v>
+        <v>0.82668578495016887</v>
       </c>
       <c r="N3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0</v>
+        <v>0.90464583523818232</v>
       </c>
       <c r="O3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0</v>
+        <v>0.88120316357319173</v>
       </c>
       <c r="P3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>0</v>
+        <v>0.7407571975861752</v>
       </c>
       <c r="Q3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>0</v>
+        <v>0.47409516092164211</v>
       </c>
       <c r="R3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>0</v>
+        <v>0.11865206409435858</v>
       </c>
       <c r="S3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>0</v>
+        <v>9.274023955380818E-4</v>
       </c>
       <c r="T3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>0</v>
+        <v>7.8569991771052395E-5</v>
       </c>
       <c r="U3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>0</v>
+        <v>5.8663481759166133E-5</v>
       </c>
       <c r="V3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -46562,7 +46562,7 @@
       </c>
       <c r="D4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>0</v>
+        <v>1.9757703209289567E-5</v>
       </c>
       <c r="E4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -46582,55 +46582,55 @@
       </c>
       <c r="I4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0</v>
+        <v>1.1537538630337385E-2</v>
       </c>
       <c r="J4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>0</v>
+        <v>0.23990604233336377</v>
       </c>
       <c r="K4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>0</v>
+        <v>0.63584220307214034</v>
       </c>
       <c r="L4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>0</v>
+        <v>0.79965095547225007</v>
       </c>
       <c r="M4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0</v>
+        <v>0.82668578495016887</v>
       </c>
       <c r="N4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0</v>
+        <v>0.90464583523818232</v>
       </c>
       <c r="O4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0</v>
+        <v>0.88120316357319173</v>
       </c>
       <c r="P4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>0</v>
+        <v>0.7407571975861752</v>
       </c>
       <c r="Q4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>0</v>
+        <v>0.47409516092164211</v>
       </c>
       <c r="R4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>0</v>
+        <v>0.11865206409435858</v>
       </c>
       <c r="S4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>0</v>
+        <v>9.274023955380818E-4</v>
       </c>
       <c r="T4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>0</v>
+        <v>7.8569991771052395E-5</v>
       </c>
       <c r="U4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>0</v>
+        <v>5.8663481759166133E-5</v>
       </c>
       <c r="V4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -47132,7 +47132,7 @@
       </c>
       <c r="C3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>0</v>
+        <v>3.4612704918032786E-5</v>
       </c>
       <c r="D3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -47156,51 +47156,51 @@
       </c>
       <c r="I3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0</v>
+        <v>9.9320532786885234E-3</v>
       </c>
       <c r="J3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>0</v>
+        <v>0.19398216393442622</v>
       </c>
       <c r="K3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>0</v>
+        <v>0.46145520491803282</v>
       </c>
       <c r="L3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>0</v>
+        <v>0.61135364098360656</v>
       </c>
       <c r="M3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>0</v>
+        <v>0.76751488524590161</v>
       </c>
       <c r="N3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>0</v>
+        <v>0.91148434426229497</v>
       </c>
       <c r="O3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>0</v>
+        <v>0.7606537090163934</v>
       </c>
       <c r="P3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>0</v>
+        <v>0.52453274999999999</v>
       </c>
       <c r="Q3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>0</v>
+        <v>0.26193729180327868</v>
       </c>
       <c r="R3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>0</v>
+        <v>5.5153573770491793E-2</v>
       </c>
       <c r="S3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>0</v>
+        <v>3.3324590163934416E-4</v>
       </c>
       <c r="T3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>0</v>
+        <v>1.47E-4</v>
       </c>
       <c r="U3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -47233,7 +47233,7 @@
       </c>
       <c r="C4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>0</v>
+        <v>3.4612704918032786E-5</v>
       </c>
       <c r="D4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -47257,51 +47257,51 @@
       </c>
       <c r="I4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0</v>
+        <v>9.9320532786885234E-3</v>
       </c>
       <c r="J4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>0</v>
+        <v>0.19398216393442622</v>
       </c>
       <c r="K4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>0</v>
+        <v>0.46145520491803282</v>
       </c>
       <c r="L4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>0</v>
+        <v>0.61135364098360656</v>
       </c>
       <c r="M4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>0</v>
+        <v>0.76751488524590161</v>
       </c>
       <c r="N4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>0</v>
+        <v>0.91148434426229497</v>
       </c>
       <c r="O4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>0</v>
+        <v>0.7606537090163934</v>
       </c>
       <c r="P4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>0</v>
+        <v>0.52453274999999999</v>
       </c>
       <c r="Q4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>0</v>
+        <v>0.26193729180327868</v>
       </c>
       <c r="R4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>0</v>
+        <v>5.5153573770491793E-2</v>
       </c>
       <c r="S4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>0</v>
+        <v>3.3324590163934416E-4</v>
       </c>
       <c r="T4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>0</v>
+        <v>1.47E-4</v>
       </c>
       <c r="U4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -47831,47 +47831,47 @@
       </c>
       <c r="I3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0</v>
+        <v>1.024310301189572E-2</v>
       </c>
       <c r="J3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>0</v>
+        <v>0.22186521924829156</v>
       </c>
       <c r="K3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>0</v>
+        <v>0.52074370412553772</v>
       </c>
       <c r="L3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>0</v>
+        <v>0.769133504176158</v>
       </c>
       <c r="M3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>0</v>
+        <v>0.80424794514047049</v>
       </c>
       <c r="N3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>0</v>
+        <v>0.71036845102505675</v>
       </c>
       <c r="O3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>0</v>
+        <v>0.57007472475322696</v>
       </c>
       <c r="P3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>0</v>
+        <v>0.45698721336370535</v>
       </c>
       <c r="Q3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>0</v>
+        <v>0.1954214502657555</v>
       </c>
       <c r="R3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>0</v>
+        <v>3.4501010820045551E-2</v>
       </c>
       <c r="S3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>0</v>
+        <v>5.642875221462921E-5</v>
       </c>
       <c r="T3" s="6">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -47932,47 +47932,47 @@
       </c>
       <c r="I4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0</v>
+        <v>1.024310301189572E-2</v>
       </c>
       <c r="J4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>0</v>
+        <v>0.22186521924829156</v>
       </c>
       <c r="K4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>0</v>
+        <v>0.52074370412553772</v>
       </c>
       <c r="L4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>0</v>
+        <v>0.769133504176158</v>
       </c>
       <c r="M4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>0</v>
+        <v>0.80424794514047049</v>
       </c>
       <c r="N4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>0</v>
+        <v>0.71036845102505675</v>
       </c>
       <c r="O4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>0</v>
+        <v>0.57007472475322696</v>
       </c>
       <c r="P4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>0</v>
+        <v>0.45698721336370535</v>
       </c>
       <c r="Q4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>0</v>
+        <v>0.1954214502657555</v>
       </c>
       <c r="R4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>0</v>
+        <v>3.4501010820045551E-2</v>
       </c>
       <c r="S4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>0</v>
+        <v>5.642875221462921E-5</v>
       </c>
       <c r="T4" s="6">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -50531,8 +50531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9D4FD3-4E6B-4832-B159-4E067DAE6C14}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51079,7 +51079,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
